--- a/results/IMI_qt_r_K_20_netflix.xlsx
+++ b/results/IMI_qt_r_K_20_netflix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>efK</t>
   </si>
@@ -35,7 +35,13 @@
     <t>qt</t>
   </si>
   <si>
-    <t>recall</t>
+    <t>n_bridges=1000</t>
+  </si>
+  <si>
+    <t>n_bridges=500</t>
+  </si>
+  <si>
+    <t>n_bridges=2000</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>IMI Netflix Con_K=20</a:t>
+              <a:t>IMI Netflix K=20</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -164,15 +170,383 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_netflix!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.374</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.454</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.494</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.736</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.118</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.326</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.344</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.558</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.214</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.438</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.666</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.408</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.878</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.058</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.946</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.466</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.656</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>19.164</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.188</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24.988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.864</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.966</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20.236</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20.472</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30.364</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29.422</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.468</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21.434</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>23.378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$F$2:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.2212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9794</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9926</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9966</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9982</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9986</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9988</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>qt_r_K_20_netflix!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall</c:v>
+                  <c:v>n_bridges=1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -189,11 +563,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -206,160 +580,160 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.347</c:v>
+                  <c:v>0.058</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.498</c:v>
+                  <c:v>0.101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.729</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.822</c:v>
+                  <c:v>0.262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.921</c:v>
+                  <c:v>0.302</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.342</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.432</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.537</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.823</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1.022</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.115</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.215</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.293</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.379</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.461</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.537</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.615</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.701</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.775</c:v>
+                  <c:v>1.255</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.852</c:v>
+                  <c:v>1.519</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.939</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.032</c:v>
+                  <c:v>1.911</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.138</c:v>
+                  <c:v>2.012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.233</c:v>
+                  <c:v>2.093</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.556</c:v>
+                  <c:v>2.442</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.957</c:v>
+                  <c:v>2.744</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.091</c:v>
+                  <c:v>3.033</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.802</c:v>
+                  <c:v>3.327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.555</c:v>
+                  <c:v>3.627</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.665</c:v>
+                  <c:v>3.927</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.974</c:v>
+                  <c:v>4.235</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.144</c:v>
+                  <c:v>4.547</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10.223</c:v>
+                  <c:v>4.85</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>11.13</c:v>
+                  <c:v>5.158</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>13.049</c:v>
+                  <c:v>5.943</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>14.85</c:v>
+                  <c:v>6.746</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.542</c:v>
+                  <c:v>7.582</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>18.266</c:v>
+                  <c:v>8.424</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>20.032</c:v>
+                  <c:v>9.281000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.788</c:v>
+                  <c:v>10.132</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23.522</c:v>
+                  <c:v>10.971</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>25.3</c:v>
+                  <c:v>11.795</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>27.047</c:v>
+                  <c:v>12.617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>28.815</c:v>
+                  <c:v>13.43</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.425</c:v>
+                  <c:v>15.063</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>36.052</c:v>
+                  <c:v>16.681</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>39.673</c:v>
+                  <c:v>18.313</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43.347</c:v>
+                  <c:v>23.533</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>46.985</c:v>
+                  <c:v>34.428</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>50.674</c:v>
+                  <c:v>32.336</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>54.326</c:v>
+                  <c:v>28.479</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>58.451</c:v>
+                  <c:v>30.008</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>61.894</c:v>
+                  <c:v>29.984</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>65.367</c:v>
+                  <c:v>31.755</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>69.048</c:v>
+                  <c:v>33.102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -371,118 +745,486 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>0.793</c:v>
+                  <c:v>0.2299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8391</c:v>
+                  <c:v>0.7096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.855</c:v>
+                  <c:v>0.8652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8647</c:v>
+                  <c:v>0.8872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8703</c:v>
+                  <c:v>0.9039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.874</c:v>
+                  <c:v>0.9152</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8836</c:v>
+                  <c:v>0.9265</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.8869</c:v>
+                  <c:v>0.9432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8919</c:v>
+                  <c:v>0.9658</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.8935</c:v>
+                  <c:v>0.9758</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.8967</c:v>
+                  <c:v>0.9779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8997</c:v>
+                  <c:v>0.9807</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9017</c:v>
+                  <c:v>0.9861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9026</c:v>
+                  <c:v>0.9913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9049</c:v>
+                  <c:v>0.9935</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9065</c:v>
+                  <c:v>0.9952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9086</c:v>
+                  <c:v>0.9962</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9114</c:v>
+                  <c:v>0.9973</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9134</c:v>
+                  <c:v>0.9978</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9163</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9181</c:v>
+                  <c:v>0.999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9243</c:v>
+                  <c:v>0.9992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9289</c:v>
+                  <c:v>0.9997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9358</c:v>
+                  <c:v>0.9997</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.944</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.9519</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9716</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.9865</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.9917</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.9946</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.996</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9968</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9977</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.9986</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.9989</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.999</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.9993</c:v>
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.9993</c:v>
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_netflix!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="6350">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$H$2:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.262</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.674</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.742</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.806</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.648</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.738</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.934</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.284</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.922</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.664</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.996</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.606</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.532</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.678000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.344</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.72</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.132</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.554</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19.252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.054</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.086</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.096</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.154</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.66</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24.25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.394</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25.722</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.774</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.434</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.978</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.704</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.858</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45.116</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.808</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49.536</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53.928</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$I$2:$I$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.2212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6986</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9414</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.978</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9794</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9854</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9928</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9962</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9978</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.9998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.9998</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0.9998</c:v>
@@ -539,11 +1281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1463317040"/>
-        <c:axId val="-1381057936"/>
+        <c:axId val="1707987728"/>
+        <c:axId val="1707985408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1463317040"/>
+        <c:axId val="1707987728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -584,7 +1326,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Query-Time (ms)</a:t>
+                  <a:t>Query-Time(ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -619,7 +1361,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -656,14 +1397,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1381057936"/>
+        <c:crossAx val="1707985408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1381057936"/>
+        <c:axId val="1707985408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +1479,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -774,7 +1515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1463317040"/>
+        <c:crossAx val="1707987728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -786,6 +1527,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -824,12 +1597,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1383,16 +2153,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1677,15 +2447,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1695,576 +2468,1212 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.34699999999999998</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C2">
-        <v>0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="E2">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="H2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.22120000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.498</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="C3">
-        <v>0.83909999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.08</v>
+      </c>
+      <c r="F3">
+        <v>0.6986</v>
+      </c>
+      <c r="H3">
+        <v>0.06</v>
+      </c>
+      <c r="I3">
+        <v>0.6986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.62</v>
+        <v>0.161</v>
       </c>
       <c r="C4">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="H4">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.85580000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.72899999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="C5">
-        <v>0.86470000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.23</v>
+      </c>
+      <c r="F5">
+        <v>0.87719999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.87719999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.82199999999999995</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="C6">
-        <v>0.87029999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="E6">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F6">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <v>0.89259999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.92100000000000004</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="C7">
-        <v>0.874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.374</v>
+      </c>
+      <c r="F7">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="H7">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8">
-        <v>1.022</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="C8">
-        <v>0.88360000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="F8">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.91820000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>1.115</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="C9">
-        <v>0.88690000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="I9">
+        <v>0.94140000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41</v>
       </c>
       <c r="B10">
-        <v>1.2150000000000001</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="C10">
-        <v>0.89190000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.96540000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.96540000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46</v>
       </c>
       <c r="B11">
-        <v>1.2929999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="C11">
-        <v>0.89349999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.9758</v>
+      </c>
+      <c r="E11">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>51</v>
       </c>
       <c r="B12">
-        <v>1.379</v>
+        <v>0.47</v>
       </c>
       <c r="C12">
-        <v>0.89670000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F12">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="I12">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>56</v>
       </c>
       <c r="B13">
-        <v>1.4610000000000001</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C13">
-        <v>0.89970000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F13">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="H13">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.97940000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>61</v>
       </c>
       <c r="B14">
-        <v>1.5369999999999999</v>
+        <v>0.629</v>
       </c>
       <c r="C14">
-        <v>0.90169999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="H14">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.98540000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66</v>
       </c>
       <c r="B15">
-        <v>1.615</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="C15">
-        <v>0.90259999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99129999999999996</v>
+      </c>
+      <c r="E15">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.99</v>
+      </c>
+      <c r="H15">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.99039999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>71</v>
       </c>
       <c r="B16">
-        <v>1.7010000000000001</v>
+        <v>1.022</v>
       </c>
       <c r="C16">
-        <v>0.90490000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99350000000000005</v>
+      </c>
+      <c r="E16">
+        <v>0.86</v>
+      </c>
+      <c r="F16">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="H16">
+        <v>2.92</v>
+      </c>
+      <c r="I16">
+        <v>0.99280000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17">
-        <v>1.7749999999999999</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="C17">
-        <v>0.90649999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="H17">
+        <v>2.2839999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.99539999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
       <c r="B18">
-        <v>1.8520000000000001</v>
+        <v>1.5189999999999999</v>
       </c>
       <c r="C18">
-        <v>0.90859999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99619999999999997</v>
+      </c>
+      <c r="E18">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="H18">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.99619999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>86</v>
       </c>
       <c r="B19">
-        <v>1.9390000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="C19">
-        <v>0.91139999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="E19">
+        <v>1.236</v>
+      </c>
+      <c r="F19">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="H19">
+        <v>3.86</v>
+      </c>
+      <c r="I19">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>91</v>
       </c>
       <c r="B20">
-        <v>2.032</v>
+        <v>1.911</v>
       </c>
       <c r="C20">
-        <v>0.91339999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="E20">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.99660000000000004</v>
+      </c>
+      <c r="H20">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="I20">
+        <v>0.99780000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
       <c r="B21">
-        <v>2.1379999999999999</v>
+        <v>2.012</v>
       </c>
       <c r="C21">
-        <v>0.9163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.999</v>
+      </c>
+      <c r="E21">
+        <v>1.4</v>
+      </c>
+      <c r="F21">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H21">
+        <v>6.766</v>
+      </c>
+      <c r="I21">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22">
-        <v>2.2330000000000001</v>
+        <v>2.093</v>
       </c>
       <c r="C22">
-        <v>0.91810000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.999</v>
+      </c>
+      <c r="E22">
+        <v>1.46</v>
+      </c>
+      <c r="F22">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="H22">
+        <v>6.9219999999999997</v>
+      </c>
+      <c r="I22">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>120</v>
       </c>
       <c r="B23">
-        <v>2.556</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="C23">
-        <v>0.92430000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="E23">
+        <v>1.7</v>
+      </c>
+      <c r="F23">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="H23">
+        <v>7.6639999999999997</v>
+      </c>
+      <c r="I23">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>140</v>
       </c>
       <c r="B24">
-        <v>2.9569999999999999</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="C24">
-        <v>0.92889999999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E24">
+        <v>1.9159999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H24">
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>160</v>
       </c>
       <c r="B25">
-        <v>4.0910000000000002</v>
+        <v>3.0329999999999999</v>
       </c>
       <c r="C25">
-        <v>0.93579999999999997</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="E25">
+        <v>2.13</v>
+      </c>
+      <c r="F25">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="H25">
+        <v>6.6059999999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>180</v>
       </c>
       <c r="B26">
-        <v>4.8019999999999996</v>
+        <v>3.327</v>
       </c>
       <c r="C26">
-        <v>0.94399999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E26">
+        <v>2.3439999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.999</v>
+      </c>
+      <c r="H26">
+        <v>10.968</v>
+      </c>
+      <c r="I26">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>200</v>
       </c>
       <c r="B27">
-        <v>5.5549999999999997</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="C27">
-        <v>0.95189999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E27">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.999</v>
+      </c>
+      <c r="H27">
+        <v>11.532</v>
+      </c>
+      <c r="I27">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>220</v>
       </c>
       <c r="B28">
-        <v>6.665</v>
+        <v>3.927</v>
       </c>
       <c r="C28">
-        <v>0.97160000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E28">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.999</v>
+      </c>
+      <c r="H28">
+        <v>9.6780000000000008</v>
+      </c>
+      <c r="I28">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>240</v>
       </c>
       <c r="B29">
-        <v>7.9740000000000002</v>
+        <v>4.2350000000000003</v>
       </c>
       <c r="C29">
-        <v>0.98650000000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E29">
+        <v>2.992</v>
+      </c>
+      <c r="F29">
+        <v>0.999</v>
+      </c>
+      <c r="H29">
+        <v>13.343999999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>260</v>
       </c>
       <c r="B30">
-        <v>9.1440000000000001</v>
+        <v>4.5469999999999997</v>
       </c>
       <c r="C30">
-        <v>0.99170000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E30">
+        <v>3.214</v>
+      </c>
+      <c r="F30">
+        <v>0.999</v>
+      </c>
+      <c r="H30">
+        <v>12.72</v>
+      </c>
+      <c r="I30">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>280</v>
       </c>
       <c r="B31">
-        <v>10.223000000000001</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="C31">
-        <v>0.99460000000000004</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E31">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.999</v>
+      </c>
+      <c r="H31">
+        <v>13.132</v>
+      </c>
+      <c r="I31">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
       <c r="B32">
-        <v>11.13</v>
+        <v>5.1580000000000004</v>
       </c>
       <c r="C32">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E32">
+        <v>3.6659999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.999</v>
+      </c>
+      <c r="H32">
+        <v>13.554</v>
+      </c>
+      <c r="I32">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>350</v>
       </c>
       <c r="B33">
-        <v>13.048999999999999</v>
+        <v>5.9429999999999996</v>
       </c>
       <c r="C33">
-        <v>0.99680000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E33">
+        <v>4.38</v>
+      </c>
+      <c r="F33">
+        <v>0.999</v>
+      </c>
+      <c r="H33">
+        <v>12.474</v>
+      </c>
+      <c r="I33">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>400</v>
       </c>
       <c r="B34">
-        <v>14.85</v>
+        <v>6.7460000000000004</v>
       </c>
       <c r="C34">
-        <v>0.99770000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E34">
+        <v>7.32</v>
+      </c>
+      <c r="F34">
+        <v>0.999</v>
+      </c>
+      <c r="H34">
+        <v>14.222</v>
+      </c>
+      <c r="I34">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>450</v>
       </c>
       <c r="B35">
-        <v>16.542000000000002</v>
+        <v>7.5819999999999999</v>
       </c>
       <c r="C35">
-        <v>0.99860000000000004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E35">
+        <v>11.407999999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.999</v>
+      </c>
+      <c r="H35">
+        <v>19.251999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>500</v>
       </c>
       <c r="B36">
-        <v>18.265999999999998</v>
+        <v>8.4239999999999995</v>
       </c>
       <c r="C36">
-        <v>0.99890000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E36">
+        <v>11.878</v>
+      </c>
+      <c r="F36">
+        <v>0.999</v>
+      </c>
+      <c r="H36">
+        <v>20.053999999999998</v>
+      </c>
+      <c r="I36">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>550</v>
       </c>
       <c r="B37">
-        <v>20.032</v>
+        <v>9.2810000000000006</v>
       </c>
       <c r="C37">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E37">
+        <v>9.0579999999999998</v>
+      </c>
+      <c r="F37">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>17.085999999999999</v>
+      </c>
+      <c r="I37">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>600</v>
       </c>
       <c r="B38">
-        <v>21.788</v>
+        <v>10.132</v>
       </c>
       <c r="C38">
-        <v>0.99929999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E38">
+        <v>8.9459999999999997</v>
+      </c>
+      <c r="F38">
+        <v>0.999</v>
+      </c>
+      <c r="H38">
+        <v>19.096</v>
+      </c>
+      <c r="I38">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>650</v>
       </c>
       <c r="B39">
-        <v>23.521999999999998</v>
+        <v>10.971</v>
       </c>
       <c r="C39">
-        <v>0.99929999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E39">
+        <v>10.465999999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.999</v>
+      </c>
+      <c r="H39">
+        <v>22.154</v>
+      </c>
+      <c r="I39">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>700</v>
       </c>
       <c r="B40">
-        <v>25.3</v>
+        <v>11.795</v>
       </c>
       <c r="C40">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>11.38</v>
+      </c>
+      <c r="F40">
+        <v>0.999</v>
+      </c>
+      <c r="H40">
+        <v>24.66</v>
+      </c>
+      <c r="I40">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>750</v>
       </c>
       <c r="B41">
-        <v>27.047000000000001</v>
+        <v>12.617000000000001</v>
       </c>
       <c r="C41">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41">
+        <v>12.656000000000001</v>
+      </c>
+      <c r="F41">
+        <v>0.999</v>
+      </c>
+      <c r="H41">
+        <v>24.25</v>
+      </c>
+      <c r="I41">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>800</v>
       </c>
       <c r="B42">
-        <v>28.815000000000001</v>
+        <v>13.43</v>
       </c>
       <c r="C42">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>19.164000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.999</v>
+      </c>
+      <c r="H42">
+        <v>25.393999999999998</v>
+      </c>
+      <c r="I42">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>900</v>
       </c>
       <c r="B43">
-        <v>32.424999999999997</v>
+        <v>15.063000000000001</v>
       </c>
       <c r="C43">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43">
+        <v>21.187999999999999</v>
+      </c>
+      <c r="F43">
+        <v>0.999</v>
+      </c>
+      <c r="H43">
+        <v>25.722000000000001</v>
+      </c>
+      <c r="I43">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1000</v>
       </c>
       <c r="B44">
-        <v>36.052</v>
+        <v>16.681000000000001</v>
       </c>
       <c r="C44">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>24.988</v>
+      </c>
+      <c r="F44">
+        <v>0.999</v>
+      </c>
+      <c r="H44">
+        <v>27.774000000000001</v>
+      </c>
+      <c r="I44">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1100</v>
       </c>
       <c r="B45">
-        <v>39.673000000000002</v>
+        <v>18.312999999999999</v>
       </c>
       <c r="C45">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E45">
+        <v>20.864000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.999</v>
+      </c>
+      <c r="H45">
+        <v>30.434000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1200</v>
       </c>
       <c r="B46">
-        <v>43.347000000000001</v>
+        <v>23.533000000000001</v>
       </c>
       <c r="C46">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>19.966000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.999</v>
+      </c>
+      <c r="H46">
+        <v>32.978000000000002</v>
+      </c>
+      <c r="I46">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1300</v>
       </c>
       <c r="B47">
-        <v>46.984999999999999</v>
+        <v>34.427999999999997</v>
       </c>
       <c r="C47">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47">
+        <v>20.236000000000001</v>
+      </c>
+      <c r="F47">
+        <v>0.999</v>
+      </c>
+      <c r="H47">
+        <v>35.704000000000001</v>
+      </c>
+      <c r="I47">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1400</v>
       </c>
       <c r="B48">
-        <v>50.673999999999999</v>
+        <v>32.335999999999999</v>
       </c>
       <c r="C48">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48">
+        <v>20.472000000000001</v>
+      </c>
+      <c r="F48">
+        <v>0.999</v>
+      </c>
+      <c r="H48">
+        <v>41.857999999999997</v>
+      </c>
+      <c r="I48">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1500</v>
       </c>
       <c r="B49">
-        <v>54.326000000000001</v>
+        <v>28.478999999999999</v>
       </c>
       <c r="C49">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E49">
+        <v>30.364000000000001</v>
+      </c>
+      <c r="F49">
+        <v>0.999</v>
+      </c>
+      <c r="H49">
+        <v>45.116</v>
+      </c>
+      <c r="I49">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1600</v>
       </c>
       <c r="B50">
-        <v>58.451000000000001</v>
+        <v>30.007999999999999</v>
       </c>
       <c r="C50">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E50">
+        <v>29.422000000000001</v>
+      </c>
+      <c r="F50">
+        <v>0.999</v>
+      </c>
+      <c r="H50">
+        <v>47.808</v>
+      </c>
+      <c r="I50">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1700</v>
       </c>
       <c r="B51">
-        <v>61.893999999999998</v>
+        <v>29.984000000000002</v>
       </c>
       <c r="C51">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E51">
+        <v>20.468</v>
+      </c>
+      <c r="F51">
+        <v>0.999</v>
+      </c>
+      <c r="H51">
+        <v>49.536000000000001</v>
+      </c>
+      <c r="I51">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1800</v>
       </c>
       <c r="B52">
-        <v>65.367000000000004</v>
+        <v>31.754999999999999</v>
       </c>
       <c r="C52">
         <v>0.99980000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E52">
+        <v>21.434000000000001</v>
+      </c>
+      <c r="F52">
+        <v>0.999</v>
+      </c>
+      <c r="H52">
+        <v>53.927999999999997</v>
+      </c>
+      <c r="I52">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1900</v>
       </c>
       <c r="B53">
-        <v>69.048000000000002</v>
+        <v>33.101999999999997</v>
       </c>
       <c r="C53">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="E53">
+        <v>23.378</v>
+      </c>
+      <c r="F53">
+        <v>0.999</v>
+      </c>
+      <c r="H53">
+        <v>54.835999999999999</v>
+      </c>
+      <c r="I53">
         <v>0.99980000000000002</v>
       </c>
     </row>

--- a/results/IMI_qt_r_K_20_netflix.xlsx
+++ b/results/IMI_qt_r_K_20_netflix.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>efK</t>
   </si>
@@ -38,10 +38,22 @@
     <t>n_bridges=1000</t>
   </si>
   <si>
-    <t>n_bridges=500</t>
+    <t>Basic</t>
   </si>
   <si>
-    <t>n_bridges=2000</t>
+    <t>n_bridges=10</t>
+  </si>
+  <si>
+    <t>n_bridges=30</t>
+  </si>
+  <si>
+    <t>n_bridges=50</t>
+  </si>
+  <si>
+    <t>n_bridges=300</t>
+  </si>
+  <si>
+    <t>n_bridges=800</t>
   </si>
 </sst>
 </file>
@@ -167,25 +179,235 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_netflix!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Basic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.054</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.181</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.275</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.346</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.423</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.489</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.548</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.576</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.657</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.734</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.841</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.941</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.132</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$C$2:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.2604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7362</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9527</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9594</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9604</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9604</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9607</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.961</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9611</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9611</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9613</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9619</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9623</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9629</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>qt_r_K_20_netflix!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n_bridges=500</c:v>
+                  <c:v>n_bridges=10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -207,703 +429,179 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qt_r_K_20_netflix!$E$2:$E$53</c:f>
+              <c:f>qt_r_K_20_netflix!$E$2:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.052</c:v>
+                  <c:v>0.056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>0.088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.136</c:v>
+                  <c:v>0.163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23</c:v>
+                  <c:v>0.232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.292</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.374</c:v>
+                  <c:v>0.313</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.402</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.476</c:v>
+                  <c:v>0.355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.454</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.494</c:v>
+                  <c:v>0.439</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.456</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.518</c:v>
+                  <c:v>0.513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.594</c:v>
+                  <c:v>0.546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.736</c:v>
+                  <c:v>0.576</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.86</c:v>
+                  <c:v>0.608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.992</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.118</c:v>
+                  <c:v>0.669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.236</c:v>
+                  <c:v>0.698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.326</c:v>
+                  <c:v>0.728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.4</c:v>
+                  <c:v>0.755</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.46</c:v>
+                  <c:v>0.777</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7</c:v>
+                  <c:v>0.893</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.916</c:v>
+                  <c:v>1.004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.13</c:v>
+                  <c:v>1.103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.344</c:v>
+                  <c:v>1.202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.558</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.776</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.992</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.214</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.438</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.666</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.38</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11.408</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.878</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.058</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.946</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.466</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.656</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19.164</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>21.188</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>24.988</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>20.864</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>19.966</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>20.236</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>20.472</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>30.364</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>29.422</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>20.468</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>21.434</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>23.378</c:v>
+                  <c:v>1.299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qt_r_K_20_netflix!$F$2:$F$53</c:f>
+              <c:f>qt_r_K_20_netflix!$F$2:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.2212</c:v>
+                  <c:v>0.2295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6986</c:v>
+                  <c:v>0.7092</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8558</c:v>
+                  <c:v>0.8644</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8772</c:v>
+                  <c:v>0.8868</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8926</c:v>
+                  <c:v>0.9029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.906</c:v>
+                  <c:v>0.9134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9182</c:v>
+                  <c:v>0.9205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9414</c:v>
+                  <c:v>0.9332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9654</c:v>
+                  <c:v>0.9487</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.975</c:v>
+                  <c:v>0.9551</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.978</c:v>
+                  <c:v>0.9678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.9794</c:v>
+                  <c:v>0.9682</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9852</c:v>
+                  <c:v>0.9698</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.99</c:v>
+                  <c:v>0.9716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9926</c:v>
+                  <c:v>0.9721</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.9948</c:v>
+                  <c:v>0.9733</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.9952</c:v>
+                  <c:v>0.9736</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9964</c:v>
+                  <c:v>0.974</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9966</c:v>
+                  <c:v>0.9739</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9982</c:v>
+                  <c:v>0.9745</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9984</c:v>
+                  <c:v>0.9746</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9986</c:v>
+                  <c:v>0.9751</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9988</c:v>
+                  <c:v>0.9758</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.9988</c:v>
+                  <c:v>0.976</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.999</c:v>
+                  <c:v>0.9763</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.999</c:v>
+                  <c:v>0.9763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>qt_r_K_20_netflix!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>n_bridges=1000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>qt_r_K_20_netflix!$B$2:$B$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0.058</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.161</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.338</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.342</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.395</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.432</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.537</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.629</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.823</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.022</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.255</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.519</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.76</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.911</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.012</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.093</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.442</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.744</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.033</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.327</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.627</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.927</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.235</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.547</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.85</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.158</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.943</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.746</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.582</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.424</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.281000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>10.132</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>10.971</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>11.795</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.617</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.43</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>15.063</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>16.681</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.313</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>23.533</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>34.428</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32.336</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>28.479</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>30.008</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>29.984</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>31.755</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>33.102</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>qt_r_K_20_netflix!$C$2:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>0.2299</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8652</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9039</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9152</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9265</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9432</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9658</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9758</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.9779</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.9807</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9861</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9913</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9935</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.9952</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9962</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9973</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9978</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.9992</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.9997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.9997</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -914,14 +612,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>n_bridges=2000</c:v>
+                  <c:v>n_bridges=30</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -933,7 +633,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="6350">
+              <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
@@ -943,335 +643,577 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>qt_r_K_20_netflix!$H$2:$H$53</c:f>
+              <c:f>qt_r_K_20_netflix!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>0.061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.096</c:v>
+                  <c:v>0.097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.138</c:v>
+                  <c:v>0.137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>0.173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.262</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.488</c:v>
+                  <c:v>0.289</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.408</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.447</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.483</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.516</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.549</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.582</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.674</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.742</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.806</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.648</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.738</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.934</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.92</c:v>
+                  <c:v>0.617</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.284</c:v>
+                  <c:v>0.652</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.192</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.86</c:v>
+                  <c:v>0.725</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.44</c:v>
+                  <c:v>0.758</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.766</c:v>
+                  <c:v>0.789</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.922</c:v>
+                  <c:v>0.813</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.664</c:v>
+                  <c:v>0.937</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.606</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.968</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.532</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.678000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.344</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.72</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.132</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.554</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.474</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14.222</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>19.252</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>20.054</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>17.086</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>19.096</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>22.154</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24.66</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>24.25</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.394</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>25.722</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.774</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>30.434</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>32.978</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>35.704</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>41.858</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45.116</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47.808</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.536</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>53.928</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>54.836</c:v>
+                  <c:v>1.054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>qt_r_K_20_netflix!$I$2:$I$53</c:f>
+              <c:f>qt_r_K_20_netflix!$I$2:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.2212</c:v>
+                  <c:v>0.2299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6986</c:v>
+                  <c:v>0.7096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8558</c:v>
+                  <c:v>0.8652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8772</c:v>
+                  <c:v>0.8871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8926</c:v>
+                  <c:v>0.9039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.906</c:v>
+                  <c:v>0.914</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.9182</c:v>
+                  <c:v>0.9211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9414</c:v>
+                  <c:v>0.9379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9654</c:v>
+                  <c:v>0.9603</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.975</c:v>
+                  <c:v>0.9689</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.978</c:v>
+                  <c:v>0.9716</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0.9724</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9745</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9767</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9789</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>0.9794</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9854</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.9904</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.9928</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.9954</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.9962</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.9978</c:v>
+                  <c:v>0.9801</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.9978</c:v>
+                  <c:v>0.9802</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.9994</c:v>
+                  <c:v>0.981</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.9994</c:v>
+                  <c:v>0.9812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9996</c:v>
+                  <c:v>0.9816</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.9998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.9998</c:v>
+                  <c:v>0.9822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_netflix!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$K$2:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.168</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.549</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.585</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.618</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.696</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.806</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.834</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.965</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.089</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.209</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$L$2:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.2299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9404</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9629</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9725</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9774</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9796</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.981</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9823</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.983</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9834</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9837</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9844</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9846</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9848</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9853</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9855</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qt_r_K_20_netflix!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n_bridges=300</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$N$2:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.202</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.347</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.437</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.471</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.694</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.143</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.382</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.561</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qt_r_K_20_netflix!$O$2:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.2299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8652</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9039</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9432</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9658</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9781</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9849</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.9893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.9918</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9933</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9939</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9946</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9952</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9964</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9964</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9969</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1288,6 +1230,7 @@
         <c:axId val="1707987728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1406,6 +1349,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
+          <c:min val="0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2153,15 +2097,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>721360</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>193040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>497840</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2447,18 +2391,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2466,1215 +2407,2211 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.8000000000000003E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.22989999999999999</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="E2">
-        <v>5.1999999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>0.22120000000000001</v>
+        <v>0.22950000000000001</v>
       </c>
       <c r="H2">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="I2">
-        <v>0.22120000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="K2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="N2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="O2">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R2">
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="T2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="U2">
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.10100000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="C3">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="E3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.70920000000000005</v>
+      </c>
+      <c r="H3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I3">
         <v>0.70960000000000001</v>
       </c>
-      <c r="E3">
-        <v>0.08</v>
-      </c>
-      <c r="F3">
-        <v>0.6986</v>
-      </c>
-      <c r="H3">
-        <v>0.06</v>
-      </c>
-      <c r="I3">
-        <v>0.6986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="N3">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="O3">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="T3">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="U3">
+        <v>0.70960000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.161</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="C4">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="E4">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="H4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="I4">
         <v>0.86519999999999997</v>
       </c>
-      <c r="E4">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F4">
-        <v>0.85580000000000001</v>
-      </c>
-      <c r="H4">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.85580000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="N4">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="R4">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="T4">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.86519999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>0.22</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="C5">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="H5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.8871</v>
+      </c>
+      <c r="K5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="L5">
         <v>0.88719999999999999</v>
       </c>
-      <c r="E5">
-        <v>0.23</v>
-      </c>
-      <c r="F5">
-        <v>0.87719999999999998</v>
-      </c>
-      <c r="H5">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.87719999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="T5">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.88719999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.26200000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="C6">
+        <v>0.91569999999999996</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I6">
         <v>0.90390000000000004</v>
       </c>
-      <c r="E6">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="F6">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="H6">
-        <v>0.2</v>
-      </c>
-      <c r="I6">
-        <v>0.89259999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="Q6">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="T6">
+        <v>0.248</v>
+      </c>
+      <c r="U6">
+        <v>0.90390000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.30199999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C7">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="E7">
+        <v>0.313</v>
+      </c>
+      <c r="F7">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.23</v>
+      </c>
+      <c r="I7">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K7">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="N7">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="O7">
         <v>0.91520000000000001</v>
       </c>
-      <c r="E7">
-        <v>0.374</v>
-      </c>
-      <c r="F7">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="H7">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.90600000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.91520000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.312</v>
+      </c>
+      <c r="U7">
+        <v>0.91520000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
       <c r="B8">
-        <v>0.33800000000000002</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="C8">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.34</v>
+      </c>
+      <c r="F8">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.92110000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="O8">
         <v>0.92649999999999999</v>
       </c>
-      <c r="E8">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.91820000000000002</v>
-      </c>
-      <c r="H8">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.91820000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="U8">
+        <v>0.92649999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>36</v>
       </c>
       <c r="B9">
-        <v>0.34200000000000003</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="C9">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="E9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F9">
+        <v>0.93320000000000003</v>
+      </c>
+      <c r="H9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="I9">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="K9">
+        <v>0.37</v>
+      </c>
+      <c r="L9">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="O9">
         <v>0.94320000000000004</v>
       </c>
-      <c r="E9">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="F9">
-        <v>0.94140000000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="I9">
-        <v>0.94140000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="R9">
+        <v>0.94320000000000004</v>
+      </c>
+      <c r="T9">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>41</v>
       </c>
       <c r="B10">
-        <v>0.39500000000000002</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C10">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="I10">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="L10">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="O10">
         <v>0.96579999999999999</v>
       </c>
-      <c r="E10">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.96540000000000004</v>
-      </c>
-      <c r="H10">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="I10">
-        <v>0.96540000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="U10">
+        <v>0.96579999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46</v>
       </c>
       <c r="B11">
-        <v>0.432</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="C11">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="E11">
+        <v>0.439</v>
+      </c>
+      <c r="F11">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="H11">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.96889999999999998</v>
+      </c>
+      <c r="K11">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.437</v>
+      </c>
+      <c r="O11">
+        <v>0.97570000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.436</v>
+      </c>
+      <c r="R11">
         <v>0.9758</v>
       </c>
-      <c r="E11">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T11">
+        <v>0.437</v>
+      </c>
+      <c r="U11">
+        <v>0.9758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>51</v>
       </c>
       <c r="B12">
-        <v>0.47</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="C12">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.48</v>
+      </c>
+      <c r="F12">
+        <v>0.96779999999999999</v>
+      </c>
+      <c r="H12">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.48</v>
+      </c>
+      <c r="L12">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="O12">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="Q12">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="R12">
         <v>0.97789999999999999</v>
       </c>
-      <c r="E12">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="F12">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="H12">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="I12">
-        <v>0.97799999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T12">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="U12">
+        <v>0.97789999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>56</v>
       </c>
       <c r="B13">
-        <v>0.53700000000000003</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C13">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="E13">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="H13">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="K13">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N13">
+        <v>0.52</v>
+      </c>
+      <c r="O13">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="Q13">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="R13">
         <v>0.98070000000000002</v>
       </c>
-      <c r="E13">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="F13">
-        <v>0.97940000000000005</v>
-      </c>
-      <c r="H13">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="I13">
-        <v>0.97940000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T13">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="U13">
+        <v>0.98070000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>61</v>
       </c>
       <c r="B14">
-        <v>0.629</v>
+        <v>0.52</v>
       </c>
       <c r="C14">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="E14">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F14">
+        <v>0.9698</v>
+      </c>
+      <c r="H14">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="I14">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="K14">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.97740000000000005</v>
+      </c>
+      <c r="N14">
+        <v>0.59</v>
+      </c>
+      <c r="O14">
+        <v>0.9849</v>
+      </c>
+      <c r="Q14">
+        <v>0.628</v>
+      </c>
+      <c r="R14">
         <v>0.98609999999999998</v>
       </c>
-      <c r="E14">
-        <v>0.59399999999999997</v>
-      </c>
-      <c r="F14">
-        <v>0.98519999999999996</v>
-      </c>
-      <c r="H14">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="I14">
-        <v>0.98540000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T14">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="U14">
+        <v>0.98609999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>66</v>
       </c>
       <c r="B15">
-        <v>0.82299999999999995</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="C15">
+        <v>0.96030000000000004</v>
+      </c>
+      <c r="E15">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.97160000000000002</v>
+      </c>
+      <c r="H15">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="I15">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="L15">
+        <v>0.97960000000000003</v>
+      </c>
+      <c r="N15">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O15">
+        <v>0.98929999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="R15">
         <v>0.99129999999999996</v>
       </c>
-      <c r="E15">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="F15">
-        <v>0.99</v>
-      </c>
-      <c r="H15">
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="I15">
-        <v>0.99039999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T15">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="U15">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>71</v>
       </c>
       <c r="B16">
-        <v>1.022</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="C16">
+        <v>0.96040000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F16">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="H16">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N16">
+        <v>0.91</v>
+      </c>
+      <c r="O16">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="R16">
         <v>0.99350000000000005</v>
       </c>
-      <c r="E16">
-        <v>0.86</v>
-      </c>
-      <c r="F16">
-        <v>0.99260000000000004</v>
-      </c>
-      <c r="H16">
-        <v>2.92</v>
-      </c>
-      <c r="I16">
-        <v>0.99280000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T16">
+        <v>1.024</v>
+      </c>
+      <c r="U16">
+        <v>0.99350000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>76</v>
       </c>
       <c r="B17">
-        <v>1.2549999999999999</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C17">
+        <v>0.9607</v>
+      </c>
+      <c r="E17">
+        <v>0.64</v>
+      </c>
+      <c r="F17">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="I17">
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="L17">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="N17">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="Q17">
+        <v>1.163</v>
+      </c>
+      <c r="R17">
         <v>0.99519999999999997</v>
       </c>
-      <c r="E17">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="F17">
-        <v>0.99480000000000002</v>
-      </c>
-      <c r="H17">
-        <v>2.2839999999999998</v>
-      </c>
-      <c r="I17">
-        <v>0.99539999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="T17">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="U17">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>81</v>
       </c>
       <c r="B18">
-        <v>1.5189999999999999</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="C18">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="H18">
+        <v>0.69</v>
+      </c>
+      <c r="I18">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="K18">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="L18">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N18">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O18">
+        <v>0.99390000000000001</v>
+      </c>
+      <c r="Q18">
+        <v>1.369</v>
+      </c>
+      <c r="R18">
+        <v>0.99609999999999999</v>
+      </c>
+      <c r="T18">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="U18">
         <v>0.99619999999999997</v>
       </c>
-      <c r="E18">
-        <v>1.1180000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.99519999999999997</v>
-      </c>
-      <c r="H18">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="I18">
-        <v>0.99619999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>86</v>
       </c>
       <c r="B19">
-        <v>1.76</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="C19">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="F19">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="I19">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="K19">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="L19">
+        <v>0.98340000000000005</v>
+      </c>
+      <c r="N19">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.99460000000000004</v>
+      </c>
+      <c r="Q19">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="T19">
+        <v>1.768</v>
+      </c>
+      <c r="U19">
         <v>0.99729999999999996</v>
       </c>
-      <c r="E19">
-        <v>1.236</v>
-      </c>
-      <c r="F19">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="H19">
-        <v>3.86</v>
-      </c>
-      <c r="I19">
-        <v>0.99780000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>91</v>
       </c>
       <c r="B20">
-        <v>1.911</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="C20">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.97389999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="K20">
+        <v>0.77</v>
+      </c>
+      <c r="L20">
+        <v>0.98370000000000002</v>
+      </c>
+      <c r="N20">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="Q20">
+        <v>1.679</v>
+      </c>
+      <c r="R20">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="T20">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="U20">
         <v>0.99780000000000002</v>
       </c>
-      <c r="E20">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.99660000000000004</v>
-      </c>
-      <c r="H20">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="I20">
-        <v>0.99780000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>96</v>
       </c>
       <c r="B21">
-        <v>2.012</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="C21">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="E21">
+        <v>0.755</v>
+      </c>
+      <c r="F21">
+        <v>0.97450000000000003</v>
+      </c>
+      <c r="H21">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="I21">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K21">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="L21">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="N21">
+        <v>1.143</v>
+      </c>
+      <c r="O21">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="Q21">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="R21">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="T21">
+        <v>2.02</v>
+      </c>
+      <c r="U21">
         <v>0.999</v>
       </c>
-      <c r="E21">
-        <v>1.4</v>
-      </c>
-      <c r="F21">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="H21">
-        <v>6.766</v>
-      </c>
-      <c r="I21">
-        <v>0.99939999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>100</v>
       </c>
       <c r="B22">
-        <v>2.093</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="C22">
+        <v>0.96109999999999995</v>
+      </c>
+      <c r="E22">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F22">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="I22">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="K22">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="L22">
+        <v>0.98460000000000003</v>
+      </c>
+      <c r="N22">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="Q22">
+        <v>1.839</v>
+      </c>
+      <c r="R22">
+        <v>0.99890000000000001</v>
+      </c>
+      <c r="T22">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="U22">
         <v>0.999</v>
       </c>
-      <c r="E22">
-        <v>1.46</v>
-      </c>
-      <c r="F22">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="H22">
-        <v>6.9219999999999997</v>
-      </c>
-      <c r="I22">
-        <v>0.99939999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>120</v>
       </c>
       <c r="B23">
-        <v>2.4420000000000002</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="C23">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="F23">
+        <v>0.97509999999999997</v>
+      </c>
+      <c r="H23">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I23">
+        <v>0.98160000000000003</v>
+      </c>
+      <c r="K23">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="L23">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.3819999999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>2.141</v>
+      </c>
+      <c r="R23">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="T23">
+        <v>2.4430000000000001</v>
+      </c>
+      <c r="U23">
         <v>0.99919999999999998</v>
       </c>
-      <c r="E23">
-        <v>1.7</v>
-      </c>
-      <c r="F23">
-        <v>0.99860000000000004</v>
-      </c>
-      <c r="H23">
-        <v>7.6639999999999997</v>
-      </c>
-      <c r="I23">
-        <v>0.99960000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>140</v>
       </c>
       <c r="B24">
-        <v>2.7440000000000002</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="C24">
+        <v>0.96189999999999998</v>
+      </c>
+      <c r="E24">
+        <v>1.004</v>
+      </c>
+      <c r="F24">
+        <v>0.9758</v>
+      </c>
+      <c r="H24">
+        <v>1.054</v>
+      </c>
+      <c r="I24">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="K24">
+        <v>1.089</v>
+      </c>
+      <c r="L24">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="N24">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="Q24">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="R24">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="T24">
+        <v>2.7509999999999999</v>
+      </c>
+      <c r="U24">
         <v>0.99970000000000003</v>
       </c>
-      <c r="E24">
-        <v>1.9159999999999999</v>
-      </c>
-      <c r="F24">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="H24">
-        <v>5.9960000000000004</v>
-      </c>
-      <c r="I24">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>160</v>
       </c>
       <c r="B25">
-        <v>3.0329999999999999</v>
+        <v>1.036</v>
       </c>
       <c r="C25">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="E25">
+        <v>1.103</v>
+      </c>
+      <c r="F25">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H25">
+        <v>1.163</v>
+      </c>
+      <c r="I25">
+        <v>0.98240000000000005</v>
+      </c>
+      <c r="K25">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="N25">
+        <v>1.7350000000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="Q25">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="R25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="T25">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="U25">
         <v>0.99970000000000003</v>
       </c>
-      <c r="E25">
-        <v>2.13</v>
-      </c>
-      <c r="F25">
-        <v>0.99880000000000002</v>
-      </c>
-      <c r="H25">
-        <v>6.6059999999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>180</v>
       </c>
       <c r="B26">
-        <v>3.327</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="C26">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E26">
+        <v>1.202</v>
+      </c>
+      <c r="F26">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H26">
+        <v>1.272</v>
+      </c>
+      <c r="I26">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="K26">
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N26">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="Q26">
+        <v>2.94</v>
+      </c>
+      <c r="R26">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T26">
+        <v>3.335</v>
+      </c>
+      <c r="U26">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E26">
-        <v>2.3439999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.999</v>
-      </c>
-      <c r="H26">
-        <v>10.968</v>
-      </c>
-      <c r="I26">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>200</v>
       </c>
       <c r="B27">
-        <v>3.6269999999999998</v>
+        <v>1.2230000000000001</v>
       </c>
       <c r="C27">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E27">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H27">
+        <v>1.379</v>
+      </c>
+      <c r="I27">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="K27">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N27">
+        <v>2.0840000000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="Q27">
+        <v>3.206</v>
+      </c>
+      <c r="R27">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T27">
+        <v>3.6320000000000001</v>
+      </c>
+      <c r="U27">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E27">
-        <v>2.5579999999999998</v>
-      </c>
-      <c r="F27">
-        <v>0.999</v>
-      </c>
-      <c r="H27">
-        <v>11.532</v>
-      </c>
-      <c r="I27">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>220</v>
       </c>
       <c r="B28">
-        <v>3.927</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="C28">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E28">
+        <v>1.395</v>
+      </c>
+      <c r="F28">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H28">
+        <v>1.484</v>
+      </c>
+      <c r="I28">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K28">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N28">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="O28">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="Q28">
+        <v>3.4740000000000002</v>
+      </c>
+      <c r="R28">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T28">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="U28">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E28">
-        <v>2.7759999999999998</v>
-      </c>
-      <c r="F28">
-        <v>0.999</v>
-      </c>
-      <c r="H28">
-        <v>9.6780000000000008</v>
-      </c>
-      <c r="I28">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>240</v>
       </c>
       <c r="B29">
-        <v>4.2350000000000003</v>
+        <v>1.405</v>
       </c>
       <c r="C29">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E29">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H29">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K29">
+        <v>1.659</v>
+      </c>
+      <c r="L29">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N29">
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="O29">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="Q29">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="R29">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T29">
+        <v>4.24</v>
+      </c>
+      <c r="U29">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E29">
-        <v>2.992</v>
-      </c>
-      <c r="F29">
-        <v>0.999</v>
-      </c>
-      <c r="H29">
-        <v>13.343999999999999</v>
-      </c>
-      <c r="I29">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>260</v>
       </c>
       <c r="B30">
-        <v>4.5469999999999997</v>
+        <v>1.496</v>
       </c>
       <c r="C30">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E30">
+        <v>1.587</v>
+      </c>
+      <c r="F30">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H30">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K30">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="L30">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N30">
+        <v>2.617</v>
+      </c>
+      <c r="O30">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q30">
+        <v>4.0110000000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T30">
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="U30">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E30">
-        <v>3.214</v>
-      </c>
-      <c r="F30">
-        <v>0.999</v>
-      </c>
-      <c r="H30">
-        <v>12.72</v>
-      </c>
-      <c r="I30">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>280</v>
       </c>
       <c r="B31">
-        <v>4.8499999999999996</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="C31">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E31">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H31">
+        <v>1.794</v>
+      </c>
+      <c r="I31">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K31">
+        <v>1.879</v>
+      </c>
+      <c r="L31">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N31">
+        <v>2.7970000000000002</v>
+      </c>
+      <c r="O31">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q31">
+        <v>4.28</v>
+      </c>
+      <c r="R31">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T31">
+        <v>4.8479999999999999</v>
+      </c>
+      <c r="U31">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E31">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.999</v>
-      </c>
-      <c r="H31">
-        <v>13.132</v>
-      </c>
-      <c r="I31">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>300</v>
       </c>
       <c r="B32">
-        <v>5.1580000000000004</v>
+        <v>1.677</v>
       </c>
       <c r="C32">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E32">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H32">
+        <v>1.897</v>
+      </c>
+      <c r="I32">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K32">
+        <v>1.988</v>
+      </c>
+      <c r="L32">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N32">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="O32">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q32">
+        <v>4.5570000000000004</v>
+      </c>
+      <c r="R32">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T32">
+        <v>5.16</v>
+      </c>
+      <c r="U32">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E32">
-        <v>3.6659999999999999</v>
-      </c>
-      <c r="F32">
-        <v>0.999</v>
-      </c>
-      <c r="H32">
-        <v>13.554</v>
-      </c>
-      <c r="I32">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>350</v>
       </c>
       <c r="B33">
-        <v>5.9429999999999996</v>
+        <v>1.903</v>
       </c>
       <c r="C33">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E33">
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H33">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K33">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="L33">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N33">
+        <v>3.4340000000000002</v>
+      </c>
+      <c r="O33">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q33">
+        <v>5.2560000000000002</v>
+      </c>
+      <c r="R33">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T33">
+        <v>5.944</v>
+      </c>
+      <c r="U33">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E33">
-        <v>4.38</v>
-      </c>
-      <c r="F33">
-        <v>0.999</v>
-      </c>
-      <c r="H33">
-        <v>12.474</v>
-      </c>
-      <c r="I33">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>400</v>
       </c>
       <c r="B34">
-        <v>6.7460000000000004</v>
+        <v>2.1280000000000001</v>
       </c>
       <c r="C34">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E34">
+        <v>2.2559999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H34">
+        <v>2.411</v>
+      </c>
+      <c r="I34">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K34">
+        <v>2.532</v>
+      </c>
+      <c r="L34">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N34">
+        <v>3.8860000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q34">
+        <v>5.9720000000000004</v>
+      </c>
+      <c r="R34">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T34">
+        <v>6.7990000000000004</v>
+      </c>
+      <c r="U34">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E34">
-        <v>7.32</v>
-      </c>
-      <c r="F34">
-        <v>0.999</v>
-      </c>
-      <c r="H34">
-        <v>14.222</v>
-      </c>
-      <c r="I34">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>450</v>
       </c>
       <c r="B35">
-        <v>7.5819999999999999</v>
+        <v>2.355</v>
       </c>
       <c r="C35">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E35">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="F35">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H35">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="I35">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K35">
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N35">
+        <v>4.3330000000000002</v>
+      </c>
+      <c r="O35">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q35">
+        <v>6.7160000000000002</v>
+      </c>
+      <c r="R35">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T35">
+        <v>7.5759999999999996</v>
+      </c>
+      <c r="U35">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E35">
-        <v>11.407999999999999</v>
-      </c>
-      <c r="F35">
-        <v>0.999</v>
-      </c>
-      <c r="H35">
-        <v>19.251999999999999</v>
-      </c>
-      <c r="I35">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>500</v>
       </c>
       <c r="B36">
-        <v>8.4239999999999995</v>
+        <v>2.5819999999999999</v>
       </c>
       <c r="C36">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E36">
+        <v>2.7330000000000001</v>
+      </c>
+      <c r="F36">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H36">
+        <v>2.923</v>
+      </c>
+      <c r="I36">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K36">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="L36">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N36">
+        <v>4.774</v>
+      </c>
+      <c r="O36">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q36">
+        <v>7.4580000000000002</v>
+      </c>
+      <c r="R36">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T36">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="U36">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E36">
-        <v>11.878</v>
-      </c>
-      <c r="F36">
-        <v>0.999</v>
-      </c>
-      <c r="H36">
-        <v>20.053999999999998</v>
-      </c>
-      <c r="I36">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>550</v>
       </c>
       <c r="B37">
-        <v>9.2810000000000006</v>
+        <v>2.8069999999999999</v>
       </c>
       <c r="C37">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E37">
+        <v>2.9710000000000001</v>
+      </c>
+      <c r="F37">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H37">
+        <v>3.1789999999999998</v>
+      </c>
+      <c r="I37">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K37">
+        <v>3.3460000000000001</v>
+      </c>
+      <c r="L37">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N37">
+        <v>5.2119999999999997</v>
+      </c>
+      <c r="O37">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q37">
+        <v>8.1980000000000004</v>
+      </c>
+      <c r="R37">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T37">
+        <v>9.27</v>
+      </c>
+      <c r="U37">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E37">
-        <v>9.0579999999999998</v>
-      </c>
-      <c r="F37">
-        <v>0.999</v>
-      </c>
-      <c r="H37">
-        <v>17.085999999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>600</v>
       </c>
       <c r="B38">
-        <v>10.132</v>
+        <v>3.0329999999999999</v>
       </c>
       <c r="C38">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E38">
+        <v>3.2109999999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H38">
+        <v>3.4359999999999999</v>
+      </c>
+      <c r="I38">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K38">
+        <v>3.6179999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N38">
+        <v>5.66</v>
+      </c>
+      <c r="O38">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q38">
+        <v>8.9239999999999995</v>
+      </c>
+      <c r="R38">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T38">
+        <v>10.115</v>
+      </c>
+      <c r="U38">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E38">
-        <v>8.9459999999999997</v>
-      </c>
-      <c r="F38">
-        <v>0.999</v>
-      </c>
-      <c r="H38">
-        <v>19.096</v>
-      </c>
-      <c r="I38">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>650</v>
       </c>
       <c r="B39">
-        <v>10.971</v>
+        <v>3.258</v>
       </c>
       <c r="C39">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E39">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="F39">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H39">
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="I39">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K39">
+        <v>3.89</v>
+      </c>
+      <c r="L39">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N39">
+        <v>6.1029999999999998</v>
+      </c>
+      <c r="O39">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q39">
+        <v>9.6470000000000002</v>
+      </c>
+      <c r="R39">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T39">
+        <v>10.952999999999999</v>
+      </c>
+      <c r="U39">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E39">
-        <v>10.465999999999999</v>
-      </c>
-      <c r="F39">
-        <v>0.999</v>
-      </c>
-      <c r="H39">
-        <v>22.154</v>
-      </c>
-      <c r="I39">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>700</v>
       </c>
       <c r="B40">
-        <v>11.795</v>
+        <v>3.484</v>
       </c>
       <c r="C40">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E40">
+        <v>3.6869999999999998</v>
+      </c>
+      <c r="F40">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H40">
+        <v>3.948</v>
+      </c>
+      <c r="I40">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K40">
+        <v>4.1589999999999998</v>
+      </c>
+      <c r="L40">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N40">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="O40">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q40">
+        <v>10.355</v>
+      </c>
+      <c r="R40">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T40">
+        <v>11.771000000000001</v>
+      </c>
+      <c r="U40">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E40">
-        <v>11.38</v>
-      </c>
-      <c r="F40">
-        <v>0.999</v>
-      </c>
-      <c r="H40">
-        <v>24.66</v>
-      </c>
-      <c r="I40">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>750</v>
       </c>
       <c r="B41">
-        <v>12.617000000000001</v>
+        <v>3.7109999999999999</v>
       </c>
       <c r="C41">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E41">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="F41">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H41">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="I41">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K41">
+        <v>4.431</v>
+      </c>
+      <c r="L41">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N41">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="O41">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q41">
+        <v>11.066000000000001</v>
+      </c>
+      <c r="R41">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T41">
+        <v>12.592000000000001</v>
+      </c>
+      <c r="U41">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E41">
-        <v>12.656000000000001</v>
-      </c>
-      <c r="F41">
-        <v>0.999</v>
-      </c>
-      <c r="H41">
-        <v>24.25</v>
-      </c>
-      <c r="I41">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>800</v>
       </c>
       <c r="B42">
-        <v>13.43</v>
+        <v>3.9359999999999999</v>
       </c>
       <c r="C42">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E42">
+        <v>4.1639999999999997</v>
+      </c>
+      <c r="F42">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H42">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="I42">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K42">
+        <v>4.7030000000000003</v>
+      </c>
+      <c r="L42">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N42">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q42">
+        <v>11.776</v>
+      </c>
+      <c r="R42">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T42">
+        <v>13.406000000000001</v>
+      </c>
+      <c r="U42">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E42">
-        <v>19.164000000000001</v>
-      </c>
-      <c r="F42">
-        <v>0.999</v>
-      </c>
-      <c r="H42">
-        <v>25.393999999999998</v>
-      </c>
-      <c r="I42">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>900</v>
       </c>
       <c r="B43">
-        <v>15.063000000000001</v>
+        <v>5.7439999999999998</v>
       </c>
       <c r="C43">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E43">
+        <v>4.641</v>
+      </c>
+      <c r="F43">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H43">
+        <v>4.976</v>
+      </c>
+      <c r="I43">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K43">
+        <v>5.2530000000000001</v>
+      </c>
+      <c r="L43">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N43">
+        <v>8.2669999999999995</v>
+      </c>
+      <c r="O43">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q43">
+        <v>13.195</v>
+      </c>
+      <c r="R43">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T43">
+        <v>15.026</v>
+      </c>
+      <c r="U43">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E43">
-        <v>21.187999999999999</v>
-      </c>
-      <c r="F43">
-        <v>0.999</v>
-      </c>
-      <c r="H43">
-        <v>25.722000000000001</v>
-      </c>
-      <c r="I43">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1000</v>
       </c>
       <c r="B44">
-        <v>16.681000000000001</v>
+        <v>7.5529999999999999</v>
       </c>
       <c r="C44">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E44">
+        <v>5.1189999999999998</v>
+      </c>
+      <c r="F44">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H44">
+        <v>5.4889999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K44">
+        <v>5.79</v>
+      </c>
+      <c r="L44">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N44">
+        <v>9.1379999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>14.609</v>
+      </c>
+      <c r="R44">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T44">
+        <v>16.643000000000001</v>
+      </c>
+      <c r="U44">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E44">
-        <v>24.988</v>
-      </c>
-      <c r="F44">
-        <v>0.999</v>
-      </c>
-      <c r="H44">
-        <v>27.774000000000001</v>
-      </c>
-      <c r="I44">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1100</v>
       </c>
       <c r="B45">
-        <v>18.312999999999999</v>
+        <v>9.3629999999999995</v>
       </c>
       <c r="C45">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E45">
+        <v>5.5960000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H45">
+        <v>5.9909999999999997</v>
+      </c>
+      <c r="I45">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K45">
+        <v>6.3339999999999996</v>
+      </c>
+      <c r="L45">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N45">
+        <v>10.009</v>
+      </c>
+      <c r="O45">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q45">
+        <v>16.024999999999999</v>
+      </c>
+      <c r="R45">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T45">
+        <v>18.265000000000001</v>
+      </c>
+      <c r="U45">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E45">
-        <v>20.864000000000001</v>
-      </c>
-      <c r="F45">
-        <v>0.999</v>
-      </c>
-      <c r="H45">
-        <v>30.434000000000001</v>
-      </c>
-      <c r="I45">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1200</v>
       </c>
       <c r="B46">
-        <v>23.533000000000001</v>
+        <v>11.177</v>
       </c>
       <c r="C46">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="E46">
+        <v>6.0720000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.97629999999999995</v>
+      </c>
+      <c r="H46">
+        <v>6.5069999999999997</v>
+      </c>
+      <c r="I46">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="K46">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="L46">
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="N46">
+        <v>10.885</v>
+      </c>
+      <c r="O46">
+        <v>0.99780000000000002</v>
+      </c>
+      <c r="Q46">
+        <v>17.452000000000002</v>
+      </c>
+      <c r="R46">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="T46">
+        <v>19.893000000000001</v>
+      </c>
+      <c r="U46">
         <v>0.99980000000000002</v>
       </c>
-      <c r="E46">
-        <v>19.966000000000001</v>
-      </c>
-      <c r="F46">
-        <v>0.999</v>
-      </c>
-      <c r="H46">
-        <v>32.978000000000002</v>
-      </c>
-      <c r="I46">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1300</v>
       </c>
       <c r="B47">
-        <v>34.427999999999997</v>
+        <v>12.993</v>
       </c>
       <c r="C47">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E47">
-        <v>20.236000000000001</v>
-      </c>
-      <c r="F47">
-        <v>0.999</v>
-      </c>
-      <c r="H47">
-        <v>35.704000000000001</v>
-      </c>
-      <c r="I47">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1400</v>
       </c>
       <c r="B48">
-        <v>32.335999999999999</v>
+        <v>14.831</v>
       </c>
       <c r="C48">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E48">
-        <v>20.472000000000001</v>
-      </c>
-      <c r="F48">
-        <v>0.999</v>
-      </c>
-      <c r="H48">
-        <v>41.857999999999997</v>
-      </c>
-      <c r="I48">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1500</v>
       </c>
       <c r="B49">
-        <v>28.478999999999999</v>
+        <v>16.655000000000001</v>
       </c>
       <c r="C49">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E49">
-        <v>30.364000000000001</v>
-      </c>
-      <c r="F49">
-        <v>0.999</v>
-      </c>
-      <c r="H49">
-        <v>45.116</v>
-      </c>
-      <c r="I49">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.96289999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1600</v>
       </c>
-      <c r="B50">
-        <v>30.007999999999999</v>
-      </c>
-      <c r="C50">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E50">
-        <v>29.422000000000001</v>
-      </c>
-      <c r="F50">
-        <v>0.999</v>
-      </c>
-      <c r="H50">
-        <v>47.808</v>
-      </c>
-      <c r="I50">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1700</v>
       </c>
-      <c r="B51">
-        <v>29.984000000000002</v>
-      </c>
-      <c r="C51">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E51">
-        <v>20.468</v>
-      </c>
-      <c r="F51">
-        <v>0.999</v>
-      </c>
-      <c r="H51">
-        <v>49.536000000000001</v>
-      </c>
-      <c r="I51">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1800</v>
       </c>
-      <c r="B52">
-        <v>31.754999999999999</v>
-      </c>
-      <c r="C52">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E52">
-        <v>21.434000000000001</v>
-      </c>
-      <c r="F52">
-        <v>0.999</v>
-      </c>
-      <c r="H52">
-        <v>53.927999999999997</v>
-      </c>
-      <c r="I52">
-        <v>0.99980000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1900</v>
-      </c>
-      <c r="B53">
-        <v>33.101999999999997</v>
-      </c>
-      <c r="C53">
-        <v>0.99980000000000002</v>
-      </c>
-      <c r="E53">
-        <v>23.378</v>
-      </c>
-      <c r="F53">
-        <v>0.999</v>
-      </c>
-      <c r="H53">
-        <v>54.835999999999999</v>
-      </c>
-      <c r="I53">
-        <v>0.99980000000000002</v>
       </c>
     </row>
   </sheetData>
